--- a/biology/Écologie/Austral_Ecology/Austral_Ecology.xlsx
+++ b/biology/Écologie/Austral_Ecology/Austral_Ecology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Austral Ecology (abrégé en Austral Ecol.) est une publication scientifique à comité de lecture de l’Ecological Society of Australia qui traite de tous les aspects de l'écologie des milieux terrestres et aquatiques de l’hémisphère sud[1].  
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 1,578 en 2009. Actuellement, le directeur de publication est Michael Bull (Université Flinders, Australie)[2].
+Austral Ecology (abrégé en Austral Ecol.) est une publication scientifique à comité de lecture de l’Ecological Society of Australia qui traite de tous les aspects de l'écologie des milieux terrestres et aquatiques de l’hémisphère sud.  
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 1,578 en 2009. Actuellement, le directeur de publication est Michael Bull (Université Flinders, Australie).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au cours de son histoire, le journal a changé de nom :
 Australian Journal of Ecology, 1976-1999  (ISSN 1440-1657 et 0307-692X)
